--- a/Bench List_15 Apr 20.xlsx
+++ b/Bench List_15 Apr 20.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prduhan\OneDrive - Capgemini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3146BE73-9B00-4A3B-A389-88BD86230799}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="967">
   <si>
     <t>Country</t>
   </si>
@@ -2919,13 +2920,22 @@
   </si>
   <si>
     <t>From 6th April</t>
+  </si>
+  <si>
+    <t>Not joined status calls</t>
+  </si>
+  <si>
+    <t>Not joined status call</t>
+  </si>
+  <si>
+    <t>Not joines status call</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2968,8 +2978,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3006,6 +3030,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3039,7 +3069,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3076,24 +3106,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3106,32 +3119,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 106" xfId="1"/>
+    <cellStyle name="Normal 106" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3408,13 +3439,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:XFD62"/>
+      <selection pane="bottomLeft" activeCell="R298" sqref="R298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -3430,8 +3461,8 @@
     <col min="15" max="16" width="8.7265625" style="1"/>
     <col min="17" max="17" width="13.54296875" style="1" customWidth="1"/>
     <col min="18" max="21" width="8.7265625" style="1"/>
-    <col min="22" max="22" width="14.26953125" style="20" customWidth="1"/>
-    <col min="23" max="23" width="9.6328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.26953125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="21.7265625" style="14" customWidth="1"/>
     <col min="24" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -3502,7 +3533,7 @@
       <c r="V1" s="20" t="s">
         <v>961</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="20" t="s">
         <v>962</v>
       </c>
     </row>
@@ -3555,6 +3586,7 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3605,6 +3637,7 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3655,6 +3688,7 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3705,6 +3739,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -3755,6 +3790,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -3805,6 +3841,7 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -3855,6 +3892,7 @@
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -3905,6 +3943,7 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -3957,6 +3996,7 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -4007,6 +4047,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -4057,6 +4098,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -4107,6 +4149,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -4157,6 +4200,7 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -4207,6 +4251,7 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -4257,6 +4302,7 @@
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -5887,6 +5933,7 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
       <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
@@ -5935,6 +5982,7 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
@@ -5983,6 +6031,7 @@
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
       <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
@@ -6033,6 +6082,7 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
       <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
@@ -6083,6 +6133,7 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
       <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -6135,6 +6186,7 @@
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
@@ -6185,6 +6237,7 @@
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
       <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
@@ -6238,14 +6291,16 @@
       <c r="Q56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R56" s="8"/>
+      <c r="R56" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="20" t="s">
         <v>939</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="W56" s="20" t="s">
         <v>940</v>
       </c>
     </row>
@@ -6298,6 +6353,7 @@
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
       <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
@@ -6346,63 +6402,70 @@
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
       <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="15">
+      <c r="A59" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="23">
         <v>1420783</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="23">
         <v>175816</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="24">
         <v>43524</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="K59" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" s="18" t="s">
+      <c r="K59" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="M59" s="15" t="s">
+      <c r="M59" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="N59" s="14" t="s">
+      <c r="N59" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O59" s="14" t="s">
+      <c r="O59" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="14" t="s">
+      <c r="P59" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="Q59" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
+      <c r="Q59" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R59" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
@@ -6453,6 +6516,7 @@
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
       <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
@@ -6503,8 +6567,9 @@
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
       <c r="V61" s="1"/>
-    </row>
-    <row r="62" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23" ht="22" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>21</v>
       </c>
@@ -6556,14 +6621,16 @@
       <c r="Q62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R62" s="8"/>
+      <c r="R62" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="1" t="s">
+      <c r="V62" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="W62" s="20" t="s">
         <v>943</v>
       </c>
     </row>
@@ -6616,6 +6683,7 @@
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
       <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
@@ -6669,14 +6737,16 @@
       <c r="Q64" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R64" s="8"/>
+      <c r="R64" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="1" t="s">
+      <c r="V64" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="W64" s="20" t="s">
         <v>944</v>
       </c>
     </row>
@@ -6729,8 +6799,9 @@
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
       <c r="V65" s="1"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>21</v>
       </c>
@@ -6782,14 +6853,16 @@
       <c r="Q66" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="R66" s="8"/>
+      <c r="R66" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
       <c r="V66" s="20" t="s">
         <v>941</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="W66" s="20" t="s">
         <v>942</v>
       </c>
     </row>
@@ -6842,6 +6915,7 @@
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
       <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
@@ -6894,9 +6968,10 @@
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
       <c r="V68" s="1"/>
-    </row>
-    <row r="69" spans="1:23" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="1:23" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="10">
@@ -6911,19 +6986,19 @@
       <c r="E69" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="16">
         <v>43628</v>
       </c>
-      <c r="I69" s="24" t="s">
+      <c r="I69" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="J69" s="17" t="s">
         <v>68</v>
       </c>
       <c r="K69" s="10" t="s">
@@ -6935,26 +7010,28 @@
       <c r="M69" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="N69" s="22" t="s">
+      <c r="N69" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="O69" s="22" t="s">
+      <c r="O69" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P69" s="22" t="s">
+      <c r="P69" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q69" s="22" t="s">
+      <c r="Q69" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="26" t="s">
+      <c r="R69" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="W69" s="27" t="s">
+      <c r="W69" s="21" t="s">
         <v>959</v>
       </c>
     </row>
@@ -7007,6 +7084,7 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
       <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
@@ -7057,6 +7135,7 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
       <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
@@ -7107,6 +7186,7 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
       <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
@@ -7157,58 +7237,68 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
       <c r="V73" s="1"/>
-    </row>
-    <row r="74" spans="1:23" s="34" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="29">
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="10">
         <v>1113015</v>
       </c>
-      <c r="C74" s="29">
+      <c r="C74" s="10">
         <v>119065</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G74" s="28" t="s">
+      <c r="G74" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H74" s="30">
+      <c r="H74" s="16">
         <v>42644</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I74" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K74" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L74" s="32" t="s">
+      <c r="K74" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="M74" s="29" t="s">
+      <c r="M74" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="N74" s="28" t="s">
+      <c r="N74" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="33"/>
+      <c r="O74" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q74" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R74" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
     </row>
     <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
@@ -7259,6 +7349,7 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
       <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
@@ -7311,8 +7402,9 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
       <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23" ht="22" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>21</v>
       </c>
@@ -7364,14 +7456,16 @@
       <c r="Q77" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R77" s="8"/>
+      <c r="R77" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
-      <c r="V77" s="1" t="s">
+      <c r="V77" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="W77" s="1" t="s">
+      <c r="W77" s="20" t="s">
         <v>944</v>
       </c>
     </row>
@@ -7424,6 +7518,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
       <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
@@ -7474,6 +7569,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
       <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
@@ -7526,8 +7622,9 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
       <c r="V80" s="1"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
@@ -7579,14 +7676,16 @@
       <c r="Q81" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R81" s="8"/>
+      <c r="R81" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="W81" s="1" t="s">
+      <c r="W81" s="20" t="s">
         <v>946</v>
       </c>
     </row>
@@ -7641,6 +7740,7 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
@@ -7691,6 +7791,7 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
       <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
@@ -7741,6 +7842,7 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
       <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
@@ -7793,58 +7895,68 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
       <c r="V85" s="1"/>
-    </row>
-    <row r="86" spans="1:23" s="34" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" s="29">
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="10">
         <v>1345513</v>
       </c>
-      <c r="C86" s="29">
+      <c r="C86" s="10">
         <v>154447</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G86" s="28" t="s">
+      <c r="G86" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H86" s="30">
+      <c r="H86" s="16">
         <v>43283</v>
       </c>
-      <c r="I86" s="31" t="s">
+      <c r="I86" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J86" s="31" t="s">
+      <c r="J86" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K86" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L86" s="32" t="s">
+      <c r="K86" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L86" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="M86" s="29" t="s">
+      <c r="M86" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N86" s="28" t="s">
+      <c r="N86" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="28"/>
-      <c r="S86" s="28"/>
-      <c r="T86" s="28"/>
-      <c r="U86" s="28"/>
-      <c r="V86" s="33"/>
+      <c r="O86" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q86" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R86" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
     </row>
     <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
@@ -7895,6 +8007,7 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
       <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
@@ -7945,6 +8058,7 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
       <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
@@ -7995,8 +8109,9 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
       <c r="V89" s="1"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>21</v>
       </c>
@@ -8045,15 +8160,19 @@
       <c r="P90" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
+      <c r="Q90" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R90" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
       <c r="V90" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="W90" s="1" t="s">
+      <c r="W90" s="20" t="s">
         <v>948</v>
       </c>
     </row>
@@ -8108,6 +8227,7 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
       <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
@@ -8158,6 +8278,7 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
       <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
@@ -8208,6 +8329,7 @@
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
       <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
@@ -8260,6 +8382,7 @@
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
       <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
@@ -8312,6 +8435,7 @@
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
       <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
@@ -8362,62 +8486,64 @@
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
       <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="15">
+      <c r="A97" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="31">
         <v>1284979</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="31">
         <v>142742</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="E97" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F97" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="H97" s="16">
+      <c r="H97" s="29">
         <v>43082</v>
       </c>
-      <c r="I97" s="17" t="s">
+      <c r="I97" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J97" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K97" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L97" s="18" t="s">
+      <c r="J97" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="M97" s="15" t="s">
+      <c r="M97" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="N97" s="14" t="s">
+      <c r="N97" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="O97" s="14" t="s">
+      <c r="O97" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14" t="s">
+      <c r="P97" s="28"/>
+      <c r="Q97" s="28" t="s">
         <v>938</v>
       </c>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="14"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="21"/>
+      <c r="R97" s="28"/>
+      <c r="S97" s="28"/>
+      <c r="T97" s="28"/>
+      <c r="U97" s="28"/>
+      <c r="V97" s="33"/>
+      <c r="W97" s="33"/>
     </row>
     <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
@@ -8468,6 +8594,7 @@
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
       <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
@@ -8518,6 +8645,7 @@
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
       <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
@@ -8568,6 +8696,7 @@
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
       <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
@@ -8618,9 +8747,10 @@
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
       <c r="V101" s="1"/>
-    </row>
-    <row r="102" spans="1:23" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="22" t="s">
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:23" s="19" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A102" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B102" s="10">
@@ -8635,50 +8765,52 @@
       <c r="E102" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F102" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H102" s="23">
+      <c r="H102" s="16">
         <v>43054</v>
       </c>
-      <c r="I102" s="24" t="s">
+      <c r="I102" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J102" s="24" t="s">
+      <c r="J102" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K102" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L102" s="25" t="s">
+      <c r="L102" s="18" t="s">
         <v>359</v>
       </c>
       <c r="M102" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="N102" s="22" t="s">
+      <c r="N102" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O102" s="22" t="s">
+      <c r="O102" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P102" s="22" t="s">
+      <c r="P102" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Q102" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
-      <c r="T102" s="22"/>
-      <c r="U102" s="22"/>
-      <c r="V102" s="26" t="s">
+      <c r="Q102" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R102" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S102" s="15"/>
+      <c r="T102" s="15"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="21" t="s">
         <v>949</v>
       </c>
-      <c r="W102" s="27" t="s">
+      <c r="W102" s="21" t="s">
         <v>950</v>
       </c>
     </row>
@@ -8733,6 +8865,7 @@
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
       <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
@@ -8783,6 +8916,7 @@
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
       <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
@@ -8833,9 +8967,10 @@
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
       <c r="V105" s="1"/>
-    </row>
-    <row r="106" spans="1:23" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="1:23" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="10">
@@ -8850,19 +8985,19 @@
       <c r="E106" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H106" s="23">
+      <c r="H106" s="16">
         <v>43279</v>
       </c>
-      <c r="I106" s="24" t="s">
+      <c r="I106" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J106" s="24" t="s">
+      <c r="J106" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K106" s="10" t="s">
@@ -8874,86 +9009,93 @@
       <c r="M106" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="N106" s="22" t="s">
+      <c r="N106" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O106" s="22" t="s">
+      <c r="O106" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P106" s="22" t="s">
+      <c r="P106" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Q106" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
-      <c r="T106" s="22"/>
-      <c r="U106" s="22"/>
-      <c r="V106" s="26" t="s">
+      <c r="Q106" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R106" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S106" s="15"/>
+      <c r="T106" s="15"/>
+      <c r="U106" s="15"/>
+      <c r="V106" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="W106" s="27" t="s">
+      <c r="W106" s="21" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="107" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" s="15">
+      <c r="A107" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="23">
         <v>1285150</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="23">
         <v>142584</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G107" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="H107" s="16">
+      <c r="H107" s="24">
         <v>43082</v>
       </c>
-      <c r="I107" s="17" t="s">
+      <c r="I107" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J107" s="17" t="s">
+      <c r="J107" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K107" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L107" s="18" t="s">
+      <c r="K107" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L107" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="M107" s="15" t="s">
+      <c r="M107" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="N107" s="14" t="s">
+      <c r="N107" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O107" s="14" t="s">
+      <c r="O107" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="P107" s="14" t="s">
+      <c r="P107" s="22" t="s">
         <v>936</v>
       </c>
-      <c r="Q107" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R107" s="14"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="14"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="21"/>
+      <c r="Q107" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R107" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S107" s="22"/>
+      <c r="T107" s="22"/>
+      <c r="U107" s="22"/>
+      <c r="V107" s="27" t="s">
+        <v>965</v>
+      </c>
+      <c r="W107" s="27"/>
     </row>
     <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
@@ -9006,6 +9148,7 @@
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
       <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -9056,6 +9199,7 @@
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
       <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
@@ -9108,6 +9252,7 @@
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
       <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
@@ -9158,6 +9303,7 @@
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
       <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
@@ -9208,6 +9354,7 @@
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
       <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
@@ -9260,6 +9407,7 @@
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
       <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
@@ -9310,6 +9458,7 @@
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
       <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
@@ -9360,6 +9509,7 @@
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
       <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
@@ -9410,6 +9560,7 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
       <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
@@ -9462,6 +9613,7 @@
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
       <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
@@ -9514,6 +9666,7 @@
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
       <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
@@ -9566,6 +9719,7 @@
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
       <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
@@ -9616,6 +9770,7 @@
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
       <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
@@ -9668,6 +9823,7 @@
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
       <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
@@ -9718,6 +9874,7 @@
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
       <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
     </row>
     <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
@@ -9768,64 +9925,70 @@
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
       <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
     </row>
     <row r="124" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B124" s="15">
+      <c r="A124" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="23">
         <v>1171589</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="23">
         <v>100578</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="E124" s="15" t="s">
+      <c r="E124" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F124" s="14" t="s">
+      <c r="F124" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G124" s="14" t="s">
+      <c r="G124" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="H124" s="16">
+      <c r="H124" s="24">
         <v>42688</v>
       </c>
-      <c r="I124" s="17" t="s">
+      <c r="I124" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J124" s="17" t="s">
+      <c r="J124" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K124" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L124" s="18" t="s">
+      <c r="K124" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L124" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="M124" s="15" t="s">
+      <c r="M124" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="N124" s="14" t="s">
+      <c r="N124" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O124" s="14" t="s">
+      <c r="O124" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="P124" s="14" t="s">
+      <c r="P124" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="Q124" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R124" s="14"/>
-      <c r="S124" s="14"/>
-      <c r="T124" s="14"/>
-      <c r="U124" s="14"/>
-      <c r="V124" s="21"/>
+      <c r="Q124" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R124" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S124" s="22"/>
+      <c r="T124" s="22"/>
+      <c r="U124" s="22"/>
+      <c r="V124" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="W124" s="27"/>
     </row>
     <row r="125" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
@@ -9879,14 +10042,16 @@
       <c r="Q125" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R125" s="8"/>
+      <c r="R125" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S125" s="8"/>
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
       <c r="V125" s="20" t="s">
         <v>949</v>
       </c>
-      <c r="W125" s="1" t="s">
+      <c r="W125" s="20" t="s">
         <v>951</v>
       </c>
     </row>
@@ -9939,8 +10104,9 @@
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
       <c r="V126" s="1"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>21</v>
       </c>
@@ -9992,14 +10158,16 @@
       <c r="Q127" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R127" s="8"/>
+      <c r="R127" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
       <c r="V127" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="W127" s="1" t="s">
+      <c r="W127" s="20" t="s">
         <v>952</v>
       </c>
     </row>
@@ -10052,6 +10220,7 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
@@ -10102,9 +10271,10 @@
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
       <c r="V129" s="1"/>
-    </row>
-    <row r="130" spans="1:23" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="22" t="s">
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="1:23" s="19" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A130" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B130" s="10">
@@ -10119,50 +10289,52 @@
       <c r="E130" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F130" s="22" t="s">
+      <c r="F130" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G130" s="22" t="s">
+      <c r="G130" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H130" s="23">
+      <c r="H130" s="16">
         <v>43846</v>
       </c>
-      <c r="I130" s="24" t="s">
+      <c r="I130" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J130" s="24" t="s">
+      <c r="J130" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K130" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L130" s="25" t="s">
+      <c r="L130" s="18" t="s">
         <v>444</v>
       </c>
       <c r="M130" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="N130" s="22" t="s">
+      <c r="N130" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="O130" s="22" t="s">
+      <c r="O130" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P130" s="22" t="s">
+      <c r="P130" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q130" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R130" s="22"/>
-      <c r="S130" s="22"/>
-      <c r="T130" s="22"/>
-      <c r="U130" s="22"/>
-      <c r="V130" s="26" t="s">
+      <c r="Q130" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R130" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S130" s="15"/>
+      <c r="T130" s="15"/>
+      <c r="U130" s="15"/>
+      <c r="V130" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="W130" s="27" t="s">
+      <c r="W130" s="21" t="s">
         <v>958</v>
       </c>
     </row>
@@ -10217,6 +10389,7 @@
       <c r="T131" s="8"/>
       <c r="U131" s="8"/>
       <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
     </row>
     <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
@@ -10269,6 +10442,7 @@
       <c r="T132" s="8"/>
       <c r="U132" s="8"/>
       <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
@@ -10319,6 +10493,7 @@
       <c r="T133" s="8"/>
       <c r="U133" s="8"/>
       <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
     </row>
     <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
@@ -10369,6 +10544,7 @@
       <c r="T134" s="8"/>
       <c r="U134" s="8"/>
       <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
     </row>
     <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
@@ -10421,6 +10597,7 @@
       <c r="T135" s="8"/>
       <c r="U135" s="8"/>
       <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
     </row>
     <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
@@ -10471,6 +10648,7 @@
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
       <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
     </row>
     <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
@@ -10521,64 +10699,68 @@
       <c r="T137" s="8"/>
       <c r="U137" s="8"/>
       <c r="V137" s="1"/>
-    </row>
-    <row r="138" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B138" s="29">
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="10">
         <v>1467787</v>
       </c>
-      <c r="C138" s="29">
+      <c r="C138" s="10">
         <v>189815</v>
       </c>
-      <c r="D138" s="29" t="s">
+      <c r="D138" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="E138" s="29" t="s">
+      <c r="E138" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="F138" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G138" s="28" t="s">
+      <c r="G138" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H138" s="30">
+      <c r="H138" s="16">
         <v>43664</v>
       </c>
-      <c r="I138" s="31" t="s">
+      <c r="I138" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J138" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K138" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L138" s="29" t="s">
+      <c r="J138" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L138" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="M138" s="29" t="s">
+      <c r="M138" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="N138" s="28" t="s">
+      <c r="N138" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O138" s="28" t="s">
+      <c r="O138" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P138" s="28" t="s">
+      <c r="P138" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q138" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R138" s="28"/>
-      <c r="S138" s="28"/>
-      <c r="T138" s="28"/>
-      <c r="U138" s="28"/>
-      <c r="V138" s="33"/>
+      <c r="Q138" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R138" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S138" s="15"/>
+      <c r="T138" s="15"/>
+      <c r="U138" s="15"/>
+      <c r="V138" s="21"/>
+      <c r="W138" s="21"/>
     </row>
     <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
@@ -10631,6 +10813,7 @@
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
       <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
     </row>
     <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
@@ -10683,6 +10866,7 @@
       <c r="T140" s="8"/>
       <c r="U140" s="8"/>
       <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
     </row>
     <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
@@ -10735,6 +10919,7 @@
       <c r="T141" s="8"/>
       <c r="U141" s="8"/>
       <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
     </row>
     <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
@@ -10785,8 +10970,9 @@
       <c r="T142" s="8"/>
       <c r="U142" s="8"/>
       <c r="V142" s="1"/>
-    </row>
-    <row r="143" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="1:23" ht="22" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>21</v>
       </c>
@@ -10838,14 +11024,16 @@
       <c r="Q143" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R143" s="8"/>
+      <c r="R143" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S143" s="8"/>
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
-      <c r="V143" s="1" t="s">
+      <c r="V143" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="W143" s="1" t="s">
+      <c r="W143" s="20" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10898,8 +11086,9 @@
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
       <c r="V144" s="1"/>
-    </row>
-    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W144" s="1"/>
+    </row>
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>21</v>
       </c>
@@ -10950,124 +11139,135 @@
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
       <c r="V145" s="1"/>
-    </row>
-    <row r="146" spans="1:22" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A146" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B146" s="15">
+      <c r="W145" s="1"/>
+    </row>
+    <row r="146" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" s="23">
         <v>1391664</v>
       </c>
-      <c r="C146" s="15">
+      <c r="C146" s="23">
         <v>176569</v>
       </c>
-      <c r="D146" s="15" t="s">
+      <c r="D146" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="E146" s="15" t="s">
+      <c r="E146" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F146" s="14" t="s">
+      <c r="F146" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G146" s="14" t="s">
+      <c r="G146" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="H146" s="16">
+      <c r="H146" s="24">
         <v>43430</v>
       </c>
-      <c r="I146" s="17" t="s">
+      <c r="I146" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J146" s="17" t="s">
+      <c r="J146" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K146" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L146" s="18" t="s">
+      <c r="K146" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L146" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="M146" s="15" t="s">
+      <c r="M146" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="N146" s="14" t="s">
+      <c r="N146" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O146" s="14" t="s">
+      <c r="O146" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="P146" s="14" t="s">
+      <c r="P146" s="22" t="s">
         <v>933</v>
       </c>
-      <c r="Q146" s="14" t="s">
+      <c r="Q146" s="22" t="s">
         <v>934</v>
       </c>
-      <c r="R146" s="14"/>
-      <c r="S146" s="14"/>
-      <c r="T146" s="14"/>
-      <c r="U146" s="14"/>
-      <c r="V146" s="21"/>
-    </row>
-    <row r="147" spans="1:22" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B147" s="15">
+      <c r="R146" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S146" s="22"/>
+      <c r="T146" s="22"/>
+      <c r="U146" s="22"/>
+      <c r="V146" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="W146" s="27"/>
+    </row>
+    <row r="147" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" s="23">
         <v>1470332</v>
       </c>
-      <c r="C147" s="15">
+      <c r="C147" s="23">
         <v>190871</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="D147" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="E147" s="15" t="s">
+      <c r="E147" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F147" s="14" t="s">
+      <c r="F147" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G147" s="14" t="s">
+      <c r="G147" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="H147" s="16">
+      <c r="H147" s="24">
         <v>43670</v>
       </c>
-      <c r="I147" s="17" t="s">
+      <c r="I147" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J147" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K147" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L147" s="18" t="s">
+      <c r="J147" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K147" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L147" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="M147" s="15" t="s">
+      <c r="M147" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="N147" s="14" t="s">
+      <c r="N147" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O147" s="14" t="s">
+      <c r="O147" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="P147" s="14" t="s">
+      <c r="P147" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="Q147" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R147" s="14"/>
-      <c r="S147" s="14"/>
-      <c r="T147" s="14"/>
-      <c r="U147" s="14"/>
-      <c r="V147" s="21"/>
-    </row>
-    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q147" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R147" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S147" s="22"/>
+      <c r="T147" s="22"/>
+      <c r="U147" s="22"/>
+      <c r="V147" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="W147" s="27"/>
+    </row>
+    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>21</v>
       </c>
@@ -11116,8 +11316,9 @@
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
       <c r="V148" s="1"/>
-    </row>
-    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W148" s="1"/>
+    </row>
+    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>21</v>
       </c>
@@ -11168,8 +11369,9 @@
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
       <c r="V149" s="1"/>
-    </row>
-    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W149" s="1"/>
+    </row>
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>21</v>
       </c>
@@ -11220,8 +11422,9 @@
       <c r="T150" s="8"/>
       <c r="U150" s="8"/>
       <c r="V150" s="1"/>
-    </row>
-    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W150" s="1"/>
+    </row>
+    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>21</v>
       </c>
@@ -11268,8 +11471,9 @@
       <c r="T151" s="8"/>
       <c r="U151" s="8"/>
       <c r="V151" s="1"/>
-    </row>
-    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>21</v>
       </c>
@@ -11318,8 +11522,9 @@
       <c r="T152" s="8"/>
       <c r="U152" s="8"/>
       <c r="V152" s="1"/>
-    </row>
-    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>21</v>
       </c>
@@ -11368,8 +11573,9 @@
       <c r="T153" s="8"/>
       <c r="U153" s="8"/>
       <c r="V153" s="1"/>
-    </row>
-    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>21</v>
       </c>
@@ -11420,8 +11626,9 @@
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
       <c r="V154" s="1"/>
-    </row>
-    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>21</v>
       </c>
@@ -11470,8 +11677,9 @@
       <c r="T155" s="8"/>
       <c r="U155" s="8"/>
       <c r="V155" s="1"/>
-    </row>
-    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>21</v>
       </c>
@@ -11520,8 +11728,9 @@
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
       <c r="V156" s="1"/>
-    </row>
-    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>21</v>
       </c>
@@ -11570,8 +11779,9 @@
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
       <c r="V157" s="1"/>
-    </row>
-    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>21</v>
       </c>
@@ -11620,8 +11830,9 @@
       <c r="T158" s="8"/>
       <c r="U158" s="8"/>
       <c r="V158" s="1"/>
-    </row>
-    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>21</v>
       </c>
@@ -11672,8 +11883,9 @@
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
       <c r="V159" s="1"/>
-    </row>
-    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>21</v>
       </c>
@@ -11722,6 +11934,7 @@
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:21" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
@@ -14089,7 +14302,7 @@
       <c r="T208" s="8"/>
       <c r="U208" s="8"/>
     </row>
-    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>21</v>
       </c>
@@ -14138,66 +14351,70 @@
       <c r="T209" s="8"/>
       <c r="U209" s="8"/>
       <c r="V209" s="1"/>
-    </row>
-    <row r="210" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B210" s="29">
+      <c r="W209" s="1"/>
+    </row>
+    <row r="210" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="10">
         <v>1146143</v>
       </c>
-      <c r="C210" s="29">
+      <c r="C210" s="10">
         <v>94597</v>
       </c>
-      <c r="D210" s="29" t="s">
+      <c r="D210" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="E210" s="29" t="s">
+      <c r="E210" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F210" s="28" t="s">
+      <c r="F210" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G210" s="28" t="s">
+      <c r="G210" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H210" s="30">
+      <c r="H210" s="16">
         <v>42591</v>
       </c>
-      <c r="I210" s="31" t="s">
+      <c r="I210" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J210" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K210" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L210" s="29" t="s">
+      <c r="J210" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K210" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L210" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="M210" s="29" t="s">
+      <c r="M210" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="N210" s="28" t="s">
+      <c r="N210" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O210" s="28" t="s">
+      <c r="O210" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P210" s="28" t="s">
+      <c r="P210" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q210" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R210" s="28"/>
-      <c r="S210" s="28"/>
-      <c r="T210" s="28"/>
-      <c r="U210" s="28"/>
-      <c r="V210" s="33"/>
-    </row>
-    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q210" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R210" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S210" s="15"/>
+      <c r="T210" s="15"/>
+      <c r="U210" s="15"/>
+      <c r="V210" s="21"/>
+      <c r="W210" s="21"/>
+    </row>
+    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>21</v>
       </c>
@@ -14246,8 +14463,9 @@
       <c r="T211" s="8"/>
       <c r="U211" s="8"/>
       <c r="V211" s="1"/>
-    </row>
-    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W211" s="1"/>
+    </row>
+    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>21</v>
       </c>
@@ -14296,8 +14514,9 @@
       <c r="T212" s="8"/>
       <c r="U212" s="8"/>
       <c r="V212" s="1"/>
-    </row>
-    <row r="213" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W212" s="1"/>
+    </row>
+    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>21</v>
       </c>
@@ -14348,8 +14567,9 @@
       <c r="T213" s="8"/>
       <c r="U213" s="8"/>
       <c r="V213" s="1"/>
-    </row>
-    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W213" s="1"/>
+    </row>
+    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>21</v>
       </c>
@@ -14398,8 +14618,9 @@
       <c r="T214" s="8"/>
       <c r="U214" s="8"/>
       <c r="V214" s="1"/>
-    </row>
-    <row r="215" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W214" s="1"/>
+    </row>
+    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>21</v>
       </c>
@@ -14446,8 +14667,9 @@
       <c r="T215" s="8"/>
       <c r="U215" s="8"/>
       <c r="V215" s="1"/>
-    </row>
-    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W215" s="1"/>
+    </row>
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>21</v>
       </c>
@@ -14496,8 +14718,9 @@
       <c r="T216" s="8"/>
       <c r="U216" s="8"/>
       <c r="V216" s="1"/>
-    </row>
-    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W216" s="1"/>
+    </row>
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>21</v>
       </c>
@@ -14548,8 +14771,9 @@
       <c r="T217" s="8"/>
       <c r="U217" s="8"/>
       <c r="V217" s="1"/>
-    </row>
-    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W217" s="1"/>
+    </row>
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>21</v>
       </c>
@@ -14598,8 +14822,9 @@
       <c r="T218" s="8"/>
       <c r="U218" s="8"/>
       <c r="V218" s="1"/>
-    </row>
-    <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W218" s="1"/>
+    </row>
+    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>21</v>
       </c>
@@ -14648,8 +14873,9 @@
       <c r="T219" s="8"/>
       <c r="U219" s="8"/>
       <c r="V219" s="1"/>
-    </row>
-    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W219" s="1"/>
+    </row>
+    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>21</v>
       </c>
@@ -14698,8 +14924,9 @@
       <c r="T220" s="8"/>
       <c r="U220" s="8"/>
       <c r="V220" s="1"/>
-    </row>
-    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>21</v>
       </c>
@@ -14748,66 +14975,70 @@
       <c r="T221" s="8"/>
       <c r="U221" s="8"/>
       <c r="V221" s="1"/>
-    </row>
-    <row r="222" spans="1:22" s="34" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B222" s="29">
+      <c r="W221" s="1"/>
+    </row>
+    <row r="222" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A222" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" s="10">
         <v>1472125</v>
       </c>
-      <c r="C222" s="29">
+      <c r="C222" s="10">
         <v>191221</v>
       </c>
-      <c r="D222" s="29" t="s">
+      <c r="D222" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="E222" s="29" t="s">
+      <c r="E222" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F222" s="28" t="s">
+      <c r="F222" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G222" s="28" t="s">
+      <c r="G222" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H222" s="30">
+      <c r="H222" s="16">
         <v>43677</v>
       </c>
-      <c r="I222" s="31" t="s">
+      <c r="I222" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J222" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K222" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L222" s="32" t="s">
+      <c r="J222" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K222" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L222" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="M222" s="29" t="s">
+      <c r="M222" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="N222" s="28" t="s">
+      <c r="N222" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O222" s="28" t="s">
+      <c r="O222" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P222" s="28" t="s">
+      <c r="P222" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q222" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R222" s="28"/>
-      <c r="S222" s="28"/>
-      <c r="T222" s="28"/>
-      <c r="U222" s="28"/>
-      <c r="V222" s="33"/>
-    </row>
-    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q222" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R222" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S222" s="15"/>
+      <c r="T222" s="15"/>
+      <c r="U222" s="15"/>
+      <c r="V222" s="21"/>
+      <c r="W222" s="21"/>
+    </row>
+    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>21</v>
       </c>
@@ -14856,8 +15087,9 @@
       <c r="T223" s="8"/>
       <c r="U223" s="8"/>
       <c r="V223" s="1"/>
-    </row>
-    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W223" s="1"/>
+    </row>
+    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>21</v>
       </c>
@@ -14906,6 +15138,7 @@
       <c r="T224" s="8"/>
       <c r="U224" s="8"/>
       <c r="V224" s="1"/>
+      <c r="W224" s="1"/>
     </row>
     <row r="225" spans="1:21" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
@@ -15691,7 +15924,7 @@
       <c r="T240" s="8"/>
       <c r="U240" s="8"/>
     </row>
-    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>21</v>
       </c>
@@ -15740,8 +15973,9 @@
       <c r="T241" s="8"/>
       <c r="U241" s="8"/>
       <c r="V241" s="1"/>
-    </row>
-    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W241" s="1"/>
+    </row>
+    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>21</v>
       </c>
@@ -15790,8 +16024,9 @@
       <c r="T242" s="8"/>
       <c r="U242" s="8"/>
       <c r="V242" s="1"/>
-    </row>
-    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W242" s="1"/>
+    </row>
+    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>21</v>
       </c>
@@ -15840,8 +16075,9 @@
       <c r="T243" s="8"/>
       <c r="U243" s="8"/>
       <c r="V243" s="1"/>
-    </row>
-    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W243" s="1"/>
+    </row>
+    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>21</v>
       </c>
@@ -15890,8 +16126,9 @@
       <c r="T244" s="8"/>
       <c r="U244" s="8"/>
       <c r="V244" s="1"/>
-    </row>
-    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W244" s="1"/>
+    </row>
+    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>21</v>
       </c>
@@ -15940,66 +16177,70 @@
       <c r="T245" s="8"/>
       <c r="U245" s="8"/>
       <c r="V245" s="1"/>
-    </row>
-    <row r="246" spans="1:22" s="34" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A246" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B246" s="29">
+      <c r="W245" s="1"/>
+    </row>
+    <row r="246" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A246" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" s="10">
         <v>919587</v>
       </c>
-      <c r="C246" s="29">
+      <c r="C246" s="10">
         <v>67908</v>
       </c>
-      <c r="D246" s="29" t="s">
+      <c r="D246" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="E246" s="29" t="s">
+      <c r="E246" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F246" s="28" t="s">
+      <c r="F246" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G246" s="28" t="s">
+      <c r="G246" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H246" s="30">
+      <c r="H246" s="16">
         <v>41925</v>
       </c>
-      <c r="I246" s="31" t="s">
+      <c r="I246" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J246" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K246" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L246" s="32" t="s">
+      <c r="J246" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K246" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L246" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="M246" s="29" t="s">
+      <c r="M246" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="N246" s="28" t="s">
+      <c r="N246" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O246" s="28" t="s">
+      <c r="O246" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P246" s="28" t="s">
+      <c r="P246" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="Q246" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R246" s="28"/>
-      <c r="S246" s="28"/>
-      <c r="T246" s="28"/>
-      <c r="U246" s="28"/>
-      <c r="V246" s="33"/>
-    </row>
-    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q246" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R246" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S246" s="15"/>
+      <c r="T246" s="15"/>
+      <c r="U246" s="15"/>
+      <c r="V246" s="21"/>
+      <c r="W246" s="21"/>
+    </row>
+    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>21</v>
       </c>
@@ -16048,8 +16289,9 @@
       <c r="T247" s="8"/>
       <c r="U247" s="8"/>
       <c r="V247" s="1"/>
-    </row>
-    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W247" s="1"/>
+    </row>
+    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>21</v>
       </c>
@@ -16098,8 +16340,9 @@
       <c r="T248" s="8"/>
       <c r="U248" s="8"/>
       <c r="V248" s="1"/>
-    </row>
-    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W248" s="1"/>
+    </row>
+    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
         <v>21</v>
       </c>
@@ -16148,8 +16391,9 @@
       <c r="T249" s="8"/>
       <c r="U249" s="8"/>
       <c r="V249" s="1"/>
-    </row>
-    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W249" s="1"/>
+    </row>
+    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>21</v>
       </c>
@@ -16198,8 +16442,9 @@
       <c r="T250" s="8"/>
       <c r="U250" s="8"/>
       <c r="V250" s="1"/>
-    </row>
-    <row r="251" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W250" s="1"/>
+    </row>
+    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>21</v>
       </c>
@@ -16248,8 +16493,9 @@
       <c r="T251" s="8"/>
       <c r="U251" s="8"/>
       <c r="V251" s="1"/>
-    </row>
-    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W251" s="1"/>
+    </row>
+    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>21</v>
       </c>
@@ -16298,8 +16544,9 @@
       <c r="T252" s="8"/>
       <c r="U252" s="8"/>
       <c r="V252" s="1"/>
-    </row>
-    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W252" s="1"/>
+    </row>
+    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>21</v>
       </c>
@@ -16348,8 +16595,9 @@
       <c r="T253" s="8"/>
       <c r="U253" s="8"/>
       <c r="V253" s="1"/>
-    </row>
-    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W253" s="1"/>
+    </row>
+    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>21</v>
       </c>
@@ -16398,8 +16646,9 @@
       <c r="T254" s="8"/>
       <c r="U254" s="8"/>
       <c r="V254" s="1"/>
-    </row>
-    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W254" s="1"/>
+    </row>
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>21</v>
       </c>
@@ -16448,8 +16697,9 @@
       <c r="T255" s="8"/>
       <c r="U255" s="8"/>
       <c r="V255" s="1"/>
-    </row>
-    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W255" s="1"/>
+    </row>
+    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>21</v>
       </c>
@@ -16498,6 +16748,7 @@
       <c r="T256" s="8"/>
       <c r="U256" s="8"/>
       <c r="V256" s="1"/>
+      <c r="W256" s="1"/>
     </row>
     <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
@@ -16548,6 +16799,7 @@
       <c r="T257" s="8"/>
       <c r="U257" s="8"/>
       <c r="V257" s="1"/>
+      <c r="W257" s="1"/>
     </row>
     <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
@@ -16598,6 +16850,7 @@
       <c r="T258" s="8"/>
       <c r="U258" s="8"/>
       <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
     </row>
     <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
@@ -16648,8 +16901,9 @@
       <c r="T259" s="8"/>
       <c r="U259" s="8"/>
       <c r="V259" s="1"/>
-    </row>
-    <row r="260" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="W259" s="1"/>
+    </row>
+    <row r="260" spans="1:23" ht="22" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
         <v>21</v>
       </c>
@@ -16701,14 +16955,16 @@
       <c r="Q260" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R260" s="8"/>
+      <c r="R260" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S260" s="8"/>
       <c r="T260" s="8"/>
       <c r="U260" s="8"/>
       <c r="V260" s="20" t="s">
         <v>953</v>
       </c>
-      <c r="W260" s="1" t="s">
+      <c r="W260" s="20" t="s">
         <v>954</v>
       </c>
     </row>
@@ -16761,6 +17017,7 @@
       <c r="T261" s="8"/>
       <c r="U261" s="8"/>
       <c r="V261" s="1"/>
+      <c r="W261" s="1"/>
     </row>
     <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
@@ -16813,6 +17070,7 @@
       <c r="T262" s="8"/>
       <c r="U262" s="8"/>
       <c r="V262" s="1"/>
+      <c r="W262" s="1"/>
     </row>
     <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
@@ -16863,6 +17121,7 @@
       <c r="T263" s="8"/>
       <c r="U263" s="8"/>
       <c r="V263" s="1"/>
+      <c r="W263" s="1"/>
     </row>
     <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
@@ -16911,6 +17170,7 @@
       <c r="T264" s="8"/>
       <c r="U264" s="8"/>
       <c r="V264" s="1"/>
+      <c r="W264" s="1"/>
     </row>
     <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
@@ -16963,6 +17223,7 @@
       <c r="T265" s="8"/>
       <c r="U265" s="8"/>
       <c r="V265" s="1"/>
+      <c r="W265" s="1"/>
     </row>
     <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
@@ -17013,6 +17274,7 @@
       <c r="T266" s="8"/>
       <c r="U266" s="8"/>
       <c r="V266" s="1"/>
+      <c r="W266" s="1"/>
     </row>
     <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
@@ -17063,6 +17325,7 @@
       <c r="T267" s="8"/>
       <c r="U267" s="8"/>
       <c r="V267" s="1"/>
+      <c r="W267" s="1"/>
     </row>
     <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
@@ -17113,6 +17376,7 @@
       <c r="T268" s="8"/>
       <c r="U268" s="8"/>
       <c r="V268" s="1"/>
+      <c r="W268" s="1"/>
     </row>
     <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
@@ -17165,6 +17429,7 @@
       <c r="T269" s="8"/>
       <c r="U269" s="8"/>
       <c r="V269" s="1"/>
+      <c r="W269" s="1"/>
     </row>
     <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
@@ -17215,6 +17480,7 @@
       <c r="T270" s="8"/>
       <c r="U270" s="8"/>
       <c r="V270" s="1"/>
+      <c r="W270" s="1"/>
     </row>
     <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
@@ -17265,6 +17531,7 @@
       <c r="T271" s="8"/>
       <c r="U271" s="8"/>
       <c r="V271" s="1"/>
+      <c r="W271" s="1"/>
     </row>
     <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
@@ -17315,6 +17582,7 @@
       <c r="T272" s="8"/>
       <c r="U272" s="8"/>
       <c r="V272" s="1"/>
+      <c r="W272" s="1"/>
     </row>
     <row r="273" spans="1:21" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
@@ -18102,7 +18370,7 @@
       <c r="T288" s="8"/>
       <c r="U288" s="8"/>
     </row>
-    <row r="289" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8" t="s">
         <v>21</v>
       </c>
@@ -18151,8 +18419,9 @@
       <c r="T289" s="8"/>
       <c r="U289" s="8"/>
       <c r="V289" s="1"/>
-    </row>
-    <row r="290" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W289" s="1"/>
+    </row>
+    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="s">
         <v>21</v>
       </c>
@@ -18201,66 +18470,70 @@
       <c r="T290" s="8"/>
       <c r="U290" s="8"/>
       <c r="V290" s="1"/>
-    </row>
-    <row r="291" spans="1:22" s="34" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A291" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B291" s="29">
+      <c r="W290" s="1"/>
+    </row>
+    <row r="291" spans="1:23" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A291" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B291" s="10">
         <v>1352796</v>
       </c>
-      <c r="C291" s="29">
+      <c r="C291" s="10">
         <v>156137</v>
       </c>
-      <c r="D291" s="29" t="s">
+      <c r="D291" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="E291" s="29" t="s">
+      <c r="E291" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F291" s="28" t="s">
+      <c r="F291" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G291" s="28" t="s">
+      <c r="G291" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H291" s="30">
+      <c r="H291" s="16">
         <v>43304</v>
       </c>
-      <c r="I291" s="31" t="s">
+      <c r="I291" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J291" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K291" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L291" s="32" t="s">
+      <c r="J291" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K291" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L291" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="M291" s="29" t="s">
+      <c r="M291" s="10" t="s">
         <v>920</v>
       </c>
-      <c r="N291" s="28" t="s">
+      <c r="N291" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="O291" s="28" t="s">
+      <c r="O291" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P291" s="28" t="s">
+      <c r="P291" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q291" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R291" s="28"/>
-      <c r="S291" s="28"/>
-      <c r="T291" s="28"/>
-      <c r="U291" s="28"/>
-      <c r="V291" s="33"/>
-    </row>
-    <row r="292" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q291" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R291" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S291" s="15"/>
+      <c r="T291" s="15"/>
+      <c r="U291" s="15"/>
+      <c r="V291" s="21"/>
+      <c r="W291" s="21"/>
+    </row>
+    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
         <v>21</v>
       </c>
@@ -18309,8 +18582,9 @@
       <c r="T292" s="8"/>
       <c r="U292" s="8"/>
       <c r="V292" s="1"/>
-    </row>
-    <row r="293" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W292" s="1"/>
+    </row>
+    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>21</v>
       </c>
@@ -18361,8 +18635,9 @@
       <c r="T293" s="8"/>
       <c r="U293" s="8"/>
       <c r="V293" s="1"/>
-    </row>
-    <row r="294" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W293" s="1"/>
+    </row>
+    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>21</v>
       </c>
@@ -18413,8 +18688,9 @@
       <c r="T294" s="8"/>
       <c r="U294" s="8"/>
       <c r="V294" s="1"/>
-    </row>
-    <row r="295" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W294" s="1"/>
+    </row>
+    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>21</v>
       </c>
@@ -18463,9 +18739,10 @@
       <c r="T295" s="8"/>
       <c r="U295" s="8"/>
       <c r="V295" s="1"/>
+      <c r="W295" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U295">
+  <autoFilter ref="A1:U295" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="Paruchuru Praveena Kumari (prparuch)"/>
@@ -18473,26 +18750,26 @@
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="L56" r:id="rId1"/>
-    <hyperlink ref="L59" r:id="rId2"/>
-    <hyperlink ref="L62" r:id="rId3"/>
-    <hyperlink ref="L64" r:id="rId4"/>
-    <hyperlink ref="L77" r:id="rId5"/>
-    <hyperlink ref="L86" r:id="rId6"/>
-    <hyperlink ref="L97" r:id="rId7"/>
-    <hyperlink ref="L102" r:id="rId8"/>
-    <hyperlink ref="L125" r:id="rId9"/>
-    <hyperlink ref="L130" r:id="rId10"/>
-    <hyperlink ref="L143" r:id="rId11"/>
-    <hyperlink ref="L147" r:id="rId12"/>
-    <hyperlink ref="L222" r:id="rId13"/>
-    <hyperlink ref="L260" r:id="rId14"/>
-    <hyperlink ref="L246" r:id="rId15"/>
-    <hyperlink ref="L291" r:id="rId16"/>
-    <hyperlink ref="L74" r:id="rId17"/>
-    <hyperlink ref="L107" r:id="rId18"/>
-    <hyperlink ref="L124" r:id="rId19"/>
-    <hyperlink ref="L146" r:id="rId20"/>
+    <hyperlink ref="L56" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L59" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L62" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L64" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L77" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L86" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L97" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L102" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L125" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L130" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L143" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L147" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L222" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L260" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L246" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L291" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L74" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L107" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L124" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L146" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
